--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="79">
   <si>
     <t>Execute</t>
   </si>
@@ -253,6 +253,24 @@
   </si>
   <si>
     <t>Fri Nov 19 10:49:30 EST 2021</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:11 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:20 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:27 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:33 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:39 EDT 2022</t>
+  </si>
+  <si>
+    <t>Thu Oct 20 21:34:46 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -638,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -652,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -666,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -680,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -694,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -708,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
   <si>
     <t>Execute</t>
   </si>
@@ -271,6 +271,24 @@
   </si>
   <si>
     <t>Thu Oct 20 21:34:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:23:34 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:23:46 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:23:56 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:24:07 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:24:17 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Nov 02 16:24:28 EDT 2022</t>
   </si>
 </sst>
 </file>
@@ -656,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -670,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -684,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -698,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -712,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -726,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="109">
   <si>
     <t>Execute</t>
   </si>
@@ -289,6 +289,78 @@
   </si>
   <si>
     <t>Wed Nov 02 16:24:28 EDT 2022</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:05:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:05:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:05:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:05:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:05:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 14:06:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:36:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:36:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:36:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:36:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:36:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Jan 04 16:37:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:38:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:38:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:38:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:38:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:39:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Jan 06 18:39:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:46:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:46:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Jan 09 17:47:33 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -674,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -688,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -702,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -716,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -730,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -744,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="121">
   <si>
     <t>Execute</t>
   </si>
@@ -361,6 +361,42 @@
   </si>
   <si>
     <t>Mon Jan 09 17:47:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:01:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:01:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:01:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:01:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:01:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 12:02:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:40:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:40:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:40:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:40:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:40:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 16:41:11 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -746,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -760,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -774,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -788,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -802,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -816,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="127">
   <si>
     <t>Execute</t>
   </si>
@@ -397,6 +397,24 @@
   </si>
   <si>
     <t>Wed Feb 08 16:41:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:43:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:43:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 12:44:29 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -782,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -796,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -810,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -824,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -838,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -852,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="133">
   <si>
     <t>Execute</t>
   </si>
@@ -415,6 +415,24 @@
   </si>
   <si>
     <t>Wed Feb 15 12:44:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:10:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:10:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 12:11:34 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -800,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -814,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -828,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -842,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -856,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -870,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="139">
   <si>
     <t>Execute</t>
   </si>
@@ -433,6 +433,24 @@
   </si>
   <si>
     <t>Thu Feb 16 12:11:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:54:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:54:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:54:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:54:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:54:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Jul 11 12:55:03 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -818,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -832,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -846,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -860,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -874,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -888,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5A5201AF-FBB8-4BC3-A835-574EEEB2FE98}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3BFC66F0-0B55-4D16-B9D6-6829D2ACE823}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13305" windowWidth="18075" xWindow="31740" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="1635"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Execute</t>
   </si>
@@ -63,394 +63,58 @@
     <t>Sales and Use</t>
   </si>
   <si>
-    <t>Withholding Tax</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Oct 19 12:30:07 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 12:30:18 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 12:30:27 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 12:30:36 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 12:30:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Tue Oct 19 12:30:54 EDT 2021</t>
+    <t>Sun Jul 16 12:08:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:08:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:09:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:09:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sun Jul 16 12:09:23 EDT 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Thu Oct 21 22:50:12 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:50:22 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:50:31 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:50:41 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:50:51 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 22:51:01 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:05 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:11 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:17 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:23 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:29 EDT 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 21 23:49:35 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:49:36 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:49:47 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:49:57 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:50:07 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:50:18 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Oct 22 17:50:28 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:07:45 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:07:59 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:08:08 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:08:18 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:08:28 EDT 2021</t>
-  </si>
-  <si>
-    <t>Wed Oct 27 17:08:39 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:48:17 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:48:27 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:48:37 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:48:48 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:48:57 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 01 10:49:09 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:16:30 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:16:40 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:16:50 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:00 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:10 EDT 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 05 18:17:20 EDT 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:15:51 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:01 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:11 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:20 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:30 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 12:16:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:15:59 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:16:11 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:16:20 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:16:30 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:16:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Mon Nov 08 22:16:50 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:48:40 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:48:50 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:00 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:10 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:20 EST 2021</t>
-  </si>
-  <si>
-    <t>Fri Nov 19 10:49:30 EST 2021</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:11 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:20 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:27 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:33 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:39 EDT 2022</t>
-  </si>
-  <si>
-    <t>Thu Oct 20 21:34:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:23:34 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:23:46 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:23:56 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:24:07 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:24:17 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Nov 02 16:24:28 EDT 2022</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:05:15 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:05:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:05:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:05:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:05:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 14:06:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:36:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:36:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:36:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:36:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:36:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Jan 04 16:37:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:38:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:38:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:38:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:38:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:39:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Jan 06 18:39:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:46:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:46:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Jan 09 17:47:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:01:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:01:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:01:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:01:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:01:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 12:02:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:40:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:40:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:40:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:40:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:40:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 16:41:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:43:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:43:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 12:44:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:10:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:10:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 12:11:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:54:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:54:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:54:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:54:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:54:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jul 11 12:55:03 EDT 2023</t>
+    <t>Mon Jul 17 19:18:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:18:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:18:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:19:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 19:19:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:10:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Jul 17 21:11:37 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -803,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,13 +497,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -847,13 +511,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -861,13 +525,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -875,13 +539,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -889,34 +553,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3BFC66F0-0B55-4D16-B9D6-6829D2ACE823}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801522A-FB83-4ADF-B687-DD718FE1CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Execute</t>
   </si>
@@ -51,77 +51,34 @@
     <t>Estimated Tax</t>
   </si>
   <si>
-    <t>Personal Income Tax</t>
-  </si>
-  <si>
     <t>Extension Payments</t>
   </si>
   <si>
     <t>Existing Liability</t>
   </si>
   <si>
-    <t>Sales and Use</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Sun Jul 16 12:08:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:08:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:09:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:09:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sun Jul 16 12:09:23 EDT 2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:18:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:18:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:18:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:19:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 19:19:16 EDT 2023</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:10:59 EDT 2023</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:11:08 EDT 2023</t>
-  </si>
-  <si>
     <t>Mon Jul 17 21:11:18 EDT 2023</t>
   </si>
   <si>
     <t>Mon Jul 17 21:11:27 EDT 2023</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:11:37 EDT 2023</t>
+    <t>New Liability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,16 +106,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -175,10 +132,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -213,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -265,7 +222,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -376,21 +333,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -407,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -459,26 +416,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,13 +454,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -511,13 +468,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -525,49 +482,29 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801522A-FB83-4ADF-B687-DD718FE1CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013544F9-F7C0-44A3-93A7-9F26D9ED94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView xWindow="4365" yWindow="1710" windowWidth="18915" windowHeight="10740" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
   <si>
     <t>Execute</t>
   </si>
@@ -48,31 +48,94 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Estimated Tax</t>
-  </si>
-  <si>
-    <t>Extension Payments</t>
-  </si>
-  <si>
-    <t>Existing Liability</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Mon Jul 17 21:10:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:11:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Jul 17 21:11:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>New Liability</t>
+    <t>Existing Liability w/Notice Number</t>
+  </si>
+  <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>Extension Payment</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:30:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:30:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:30:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>Bay Restoration Fee</t>
+  </si>
+  <si>
+    <t>Corporate Income Tax</t>
+  </si>
+  <si>
+    <t>Fiduciary Tax</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Sales &amp; Use Tax</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>Withholding Tax</t>
+  </si>
+  <si>
+    <t>Alcohol Tax</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
+    <t>Personal Income Tax</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:39:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:39:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:39:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:39:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:40:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:40:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:40:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 04 11:40:42 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -96,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,12 +167,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,82 +505,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013544F9-F7C0-44A3-93A7-9F26D9ED94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ACE184DA-3715-4713-9ADE-9868F21FE947}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1710" windowWidth="18915" windowHeight="10740" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="121">
   <si>
     <t>Execute</t>
   </si>
@@ -60,88 +60,350 @@
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
     <t>New Tax Return Amount Due</t>
   </si>
   <si>
-    <t>Mon Sep 04 11:30:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:30:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:30:39 EDT 2023</t>
-  </si>
-  <si>
     <t>PaymentType</t>
   </si>
   <si>
     <t>Bay Restoration Fee</t>
   </si>
   <si>
+    <t>PTE Non-Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Non-Electing S Corp</t>
+  </si>
+  <si>
+    <t>Tire Recycling Fee</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing Non-S Corp</t>
+  </si>
+  <si>
+    <t>PTE Tax Electing S Corp</t>
+  </si>
+  <si>
     <t>Corporate Income Tax</t>
   </si>
   <si>
     <t>Fiduciary Tax</t>
   </si>
   <si>
-    <t>PTE Non-Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Non-Electing S Corp</t>
-  </si>
-  <si>
     <t>Sales &amp; Use Tax</t>
   </si>
   <si>
-    <t>Tire Recycling Fee</t>
-  </si>
-  <si>
     <t>Withholding Tax</t>
   </si>
   <si>
     <t>Alcohol Tax</t>
   </si>
   <si>
-    <t>PTE Tax Electing Non-S Corp</t>
-  </si>
-  <si>
-    <t>PTE Tax Electing S Corp</t>
-  </si>
-  <si>
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Mon Sep 04 11:39:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:39:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:39:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:39:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:40:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:40:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:40:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 11:40:42 EDT 2023</t>
+    <t>Fri Sep 08 12:33:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:33:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:33:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:34:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:34:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:34:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:34:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:34:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:35:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:35:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:35:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:35:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:35:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:36:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:36:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:36:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:36:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:37:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:37:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:37:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:37:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:37:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:38:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:38:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:38:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:38:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:38:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:39:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:39:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:39:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:39:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:40:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:24:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:25:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:25:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:25:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:25:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:26:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:26:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:26:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:26:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:27:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:27:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:27:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:27:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:28:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:28:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:28:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:28:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:28:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:29:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:29:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:29:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:29:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:30:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:30:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:30:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:30:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:31:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:31:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:31:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:31:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:31:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:32:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:02:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:03:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:03:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:03:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:03:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:04:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:04:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:04:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:04:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:04:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:05:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:05:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:05:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:05:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:06:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:06:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:06:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:06:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:07:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:07:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:07:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:07:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:07:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:08:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:08:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:08:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:08:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:09:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:09:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:09:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:09:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:10:04 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,19 +446,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -213,10 +475,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -251,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -414,21 +676,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -445,7 +707,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -497,28 +759,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -543,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -552,15 +814,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -569,15 +831,15 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -586,15 +848,15 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -603,10 +865,16 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -614,10 +882,16 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -625,10 +899,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -636,10 +916,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,10 +933,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,10 +950,16 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,10 +967,16 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -697,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -714,10 +1018,16 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,10 +1035,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,10 +1052,16 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,10 +1069,16 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,10 +1086,16 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -786,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,71 +1128,101 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,16 +1230,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,60 +1247,84 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,21 +1332,21 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="217">
   <si>
     <t>Execute</t>
   </si>
@@ -397,6 +397,294 @@
   </si>
   <si>
     <t>Fri Sep 08 18:10:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:46:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:46:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:47:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:47:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:47:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:47:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:47:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:48:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:48:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:48:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:48:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:49:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:49:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:49:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:49:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:49:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:50:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:50:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:50:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:50:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:51:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:51:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:51:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:51:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:51:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:52:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:52:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:52:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:52:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:52:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:53:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:53:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:57:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:58:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:58:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:58:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:58:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:59:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:59:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:59:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:59:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 12:59:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:00:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:00:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:00:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:00:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:01:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:01:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:01:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:01:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:01:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:02:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:02:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:02:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:02:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:03:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:03:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:03:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:03:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:03:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:04:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:04:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:04:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:04:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:56:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:56:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:56:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:57:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:57:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:57:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:57:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:57:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:58:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:58:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:58:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:58:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:58:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:59:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:59:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:59:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:59:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:00:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:00:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:00:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:00:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:00:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:01:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:01:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:01:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:01:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:02:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:02:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:02:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:02:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:02:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:03:27 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -805,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -822,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -839,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -856,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -873,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -890,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -907,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -924,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -941,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -958,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -975,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -992,7 +1280,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1009,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1043,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1060,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1077,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1094,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1128,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1162,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1179,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1230,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1247,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1264,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1298,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1312,10 +1600,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1332,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="249">
   <si>
     <t>Execute</t>
   </si>
@@ -685,6 +685,102 @@
   </si>
   <si>
     <t>Mon Sep 11 14:03:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:20:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:21:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:21:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:21:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:21:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:22:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:22:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:22:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:22:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:22:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:23:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:23:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:23:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:23:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:24:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:24:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:24:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:24:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:24:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:25:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:25:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:25:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:25:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:25:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:26:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:26:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:26:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:26:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:27:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:27:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:27:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:27:44 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1110,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1127,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1144,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1161,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1178,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1195,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1212,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1229,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1246,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1263,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1280,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1297,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1314,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1331,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1348,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1365,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1382,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1399,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1416,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1433,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1450,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1467,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1484,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1501,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1518,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1535,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1552,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1569,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1586,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1600,10 +1696,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1620,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="281">
   <si>
     <t>Execute</t>
   </si>
@@ -781,6 +781,102 @@
   </si>
   <si>
     <t>Tue Sep 26 21:27:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:29:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:30:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:30:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:30:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:30:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:31:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:31:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:31:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:31:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:31:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:32:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:32:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:32:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:32:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:32:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:33:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:33:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:33:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:33:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:34:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:34:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:34:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:34:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:34:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:35:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:35:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:35:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:35:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:36:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:36:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:36:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:36:44 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1206,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1223,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1240,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1308,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1342,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1359,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1376,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1393,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1410,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1427,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1444,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1461,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1478,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1495,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1512,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1529,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1546,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1563,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1580,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1597,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1614,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1631,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1648,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1665,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1682,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1699,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1716,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="345">
   <si>
     <t>Execute</t>
   </si>
@@ -877,6 +877,198 @@
   </si>
   <si>
     <t>Fri Sep 29 11:36:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:27:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:28:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:28:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:28:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:28:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:28:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:29:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:29:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:29:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:29:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:30:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:30:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:30:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:30:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:30:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:31:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:31:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:31:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:31:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:32:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:32:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:32:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:32:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:32:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:33:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:33:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:33:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:33:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:34:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:34:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:34:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:36:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:36:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:36:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:36:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:37:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:37:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:37:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:37:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:38:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:38:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:38:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:38:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:38:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:39:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:39:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:39:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:39:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:39:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:40:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:40:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:40:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:40:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:41:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:41:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:41:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:41:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:41:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:42:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:42:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:42:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:42:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:42:58 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1302,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1319,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1336,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1353,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1370,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1387,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1404,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1421,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1438,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1455,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1472,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1489,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1506,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1523,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1540,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1557,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1574,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1591,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1608,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1625,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1642,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1659,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1676,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1693,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1710,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1727,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1744,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1761,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1778,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1795,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1812,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="377">
   <si>
     <t>Execute</t>
   </si>
@@ -1069,6 +1069,102 @@
   </si>
   <si>
     <t>Mon Oct 02 16:42:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:23:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:23:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:23:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:23:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:24:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:24:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:24:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:24:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:25:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:25:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:25:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:25:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:25:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:26:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:26:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:26:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:26:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:26:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:27:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:27:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:27:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:27:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:28:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:28:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:28:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:28:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:28:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:29:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:29:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:29:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:29:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:30:00 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1494,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1511,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1528,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1545,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1562,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1579,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1596,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1613,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1630,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1647,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1664,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1681,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1698,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1715,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1732,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1749,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1766,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1783,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1800,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1817,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1834,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1851,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1868,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1885,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1902,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1919,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1936,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1953,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1970,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1987,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2004,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="409">
   <si>
     <t>Execute</t>
   </si>
@@ -1165,6 +1165,102 @@
   </si>
   <si>
     <t>Fri Oct 06 11:30:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:39:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:40:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:40:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:40:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:40:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:40:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:41:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:41:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:41:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:41:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:41:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:42:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:42:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:42:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:42:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:43:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:43:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:43:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:43:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:43:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:44:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:44:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:44:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:44:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:44:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:45:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:45:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:45:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:45:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:45:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:46:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:46:25 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1590,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1607,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1624,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1641,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1658,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1675,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1692,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1709,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1726,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1743,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1760,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1777,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1794,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1811,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1828,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1845,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1862,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1879,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1896,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1913,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1930,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1947,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1964,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1981,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1998,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -2015,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2032,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -2049,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -2066,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -2083,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2100,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="445">
   <si>
     <t>Execute</t>
   </si>
@@ -1261,6 +1261,114 @@
   </si>
   <si>
     <t>Mon Oct 09 22:46:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:01:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:01:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:02:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:02:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:45:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:46:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:46:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:46:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:46:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:46:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:47:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:47:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:47:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:47:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:47:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:48:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:48:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:48:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:48:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:48:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:49:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:49:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:49:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:49:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:49:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:50:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:50:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:50:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:50:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:50:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:51:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:51:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:51:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:51:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:51:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:52:10 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1686,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1703,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1720,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1737,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1754,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1771,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1788,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1805,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1822,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1839,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1856,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1873,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1890,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1907,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1924,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1941,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1958,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1975,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1992,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -2009,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -2026,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -2043,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -2060,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -2077,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -2094,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -2111,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2128,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -2145,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -2162,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -2179,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2196,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="107">
   <si>
     <t>Execute</t>
   </si>
@@ -280,6 +280,81 @@
   </si>
   <si>
     <t>Thu Dec 07 21:42:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:51:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:52:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:52:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:52:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:52:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:52:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:53:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:53:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:53:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:53:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:53:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:54:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:54:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:54:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:54:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:54:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:55:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:55:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:55:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:55:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:55:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:56:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:56:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:56:36 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -688,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -705,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -722,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -739,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -756,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -773,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -790,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -807,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -824,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -841,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -858,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -875,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -892,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -909,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -926,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -943,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -960,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -977,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -994,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1130,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1147,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1164,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1181,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1198,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1215,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6A8C8A06-90F1-4A08-8F6A-72C9B5B111E8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77065290-9F23-4E97-BABB-337B002FBEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="2460"/>
+    <workbookView xWindow="-26445" yWindow="2505" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>Execute</t>
   </si>
@@ -105,63 +105,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:45:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:46:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:46:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:46:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:46:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:46:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:47:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:47:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:47:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:47:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:47:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:48:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:48:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:48:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:48:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:48:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:49:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:49:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:49:34 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:49:45 EDT 2023</t>
   </si>
   <si>
@@ -183,105 +126,9 @@
     <t>Wed Nov 01 15:50:57 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:51:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:51:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:51:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:51:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:51:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:52:10 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:37:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:37:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:37:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:37:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:37:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:38:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:38:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:38:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:38:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:38:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:39:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:39:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:39:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:39:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:39:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:40:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:40:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:40:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:40:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:41:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:41:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:41:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:41:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:41:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:42:07 EST 2023</t>
-  </si>
-  <si>
     <t>Wed Dec 20 12:51:39 EST 2023</t>
   </si>
   <si>
@@ -355,13 +202,39 @@
   </si>
   <si>
     <t>Wed Dec 20 12:56:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,19 +277,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -523,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -634,21 +507,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -665,7 +538,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -717,28 +590,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -780,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -797,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -814,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -831,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -848,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -865,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -882,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -899,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -916,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -933,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -950,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -967,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -984,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1001,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1018,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1035,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1052,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1069,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1086,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -1103,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1120,10 +993,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -1137,10 +1010,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1154,10 +1027,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -1171,10 +1044,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
@@ -1188,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -1205,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1222,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1239,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1273,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1290,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1302,9 +1175,240 @@
         <v>21</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77065290-9F23-4E97-BABB-337B002FBEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{77065290-9F23-4E97-BABB-337B002FBEF6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-26445" yWindow="2505" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-26445" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="2505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="158">
   <si>
     <t>Execute</t>
   </si>
@@ -229,12 +229,292 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:56:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:56:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:56:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:57:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:57:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:57:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:57:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:57:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:58:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:59:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:59:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:59:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:59:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 22:59:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:00:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:00:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:00:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:00:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:00:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:01:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:01:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:01:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:01:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:01:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:02:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:02:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:02:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:02:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:02:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:03:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:03:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:03:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:03:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:03:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:04:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:04:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:04:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:04:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:04:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:05:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:05:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:23:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:24:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:24:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:24:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:24:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:24:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:25:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:25:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:25:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:25:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:25:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:26:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:26:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:26:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:26:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:26:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:27:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:27:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:27:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:27:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:27:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:28:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:28:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:28:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:28:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:28:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:29:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:29:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:29:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:29:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:29:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:30:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:30:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:30:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:30:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:30:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:31:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:31:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:31:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:31:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:31:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:32:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:32:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:32:34 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,19 +557,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,10 +586,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -344,7 +624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -396,7 +676,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,21 +787,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -538,7 +818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -590,15 +870,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:C54"/>
@@ -606,12 +886,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -653,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -670,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -687,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -704,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -721,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -738,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -755,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -772,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -789,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -806,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -823,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -840,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -857,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -874,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -891,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -908,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -925,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -942,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1078,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1095,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1112,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1129,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1146,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1163,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1176,6 +1456,12 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,6 +1473,12 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1198,6 +1490,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1209,6 +1507,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1220,6 +1524,12 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,6 +1541,12 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1242,6 +1558,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1253,6 +1575,12 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,6 +1592,12 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1275,6 +1609,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1286,6 +1626,12 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1297,6 +1643,12 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,6 +1660,12 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1319,6 +1677,12 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1330,6 +1694,12 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1341,6 +1711,12 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1352,6 +1728,12 @@
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
@@ -1363,6 +1745,12 @@
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1374,6 +1762,12 @@
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1385,6 +1779,12 @@
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
@@ -1396,6 +1796,12 @@
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
@@ -1407,8 +1813,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="204">
   <si>
     <t>Execute</t>
   </si>
@@ -508,6 +508,144 @@
   </si>
   <si>
     <t>Sun Jan 14 16:32:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:37:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:37:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:37:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:37:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:37:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:38:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:38:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:38:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:38:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:38:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:39:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:39:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:39:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:39:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:39:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:40:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:40:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:40:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:40:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:41:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:41:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:41:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:41:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:41:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:42:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:42:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:42:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:42:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:42:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:43:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:43:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:43:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:43:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:43:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:44:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:44:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:44:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:44:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:45:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:45:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:45:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:45:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:45:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:46:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:46:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:46:26 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -916,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -933,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -950,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -967,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -984,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1001,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1018,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1035,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1052,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1069,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1086,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1103,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1120,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1137,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1154,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1171,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1188,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1205,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1222,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1358,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1375,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1392,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1409,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1426,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1443,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1460,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1477,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1494,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1511,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1528,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1545,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1562,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1579,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1596,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1613,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1630,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1647,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1664,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1681,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1698,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1715,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1732,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1749,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1766,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1783,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1800,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="250">
   <si>
     <t>Execute</t>
   </si>
@@ -646,6 +646,144 @@
   </si>
   <si>
     <t>Thu Jan 25 17:46:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:15:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:16:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:16:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:16:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:16:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:16:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:17:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:17:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:17:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:17:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:18:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:18:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:18:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:18:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:18:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:19:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:19:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:19:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:19:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:20:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:20:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:20:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:20:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:20:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:21:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:21:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:21:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:21:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:21:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:22:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:22:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:22:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:22:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:23:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:23:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:23:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:23:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:23:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:24:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:24:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:24:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:24:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:25:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:25:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:25:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:25:43 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1071,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1088,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1105,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1122,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1139,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1156,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1173,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1190,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1207,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1224,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1241,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1258,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1275,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1292,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1309,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1326,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1343,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1360,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1496,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1513,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1530,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1547,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1564,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1581,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1598,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1615,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1632,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1649,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1666,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1683,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1700,7 +1838,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1717,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1734,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1751,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1768,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1785,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1802,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1819,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1836,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1853,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1870,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1887,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1904,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1921,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1938,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="296">
   <si>
     <t>Execute</t>
   </si>
@@ -784,6 +784,144 @@
   </si>
   <si>
     <t>Sat Feb 03 23:25:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:44:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:45:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:45:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:45:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:45:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:46:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:46:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:46:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:46:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:46:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:47:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:47:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:47:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:47:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:47:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:48:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:48:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:48:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:48:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:48:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:49:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:49:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:49:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:49:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:49:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:50:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:50:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:50:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:50:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:50:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:51:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:51:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:51:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:51:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:51:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:52:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:52:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:52:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:52:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:53:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:53:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:53:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:53:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:53:50 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1209,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1226,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1243,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1277,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1294,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1311,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1328,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1345,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1362,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1379,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1396,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1413,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1430,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1447,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1464,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1481,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1498,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1634,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1651,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1668,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1685,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1702,7 +1840,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1719,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1736,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1753,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1770,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1787,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1804,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1821,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1838,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1855,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1872,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1889,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1906,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1923,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1940,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1957,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1974,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1991,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -2008,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -2025,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -2042,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2059,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -2076,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="342">
   <si>
     <t>Execute</t>
   </si>
@@ -922,6 +922,144 @@
   </si>
   <si>
     <t>Sat Feb 17 22:53:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:39:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:40:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:40:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:41:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:41:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:42:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:43:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:43:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:44:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:44:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:45:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:46:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:46:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:47:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:48:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:48:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:49:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:50:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:50:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:51:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:51:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:52:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:52:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:53:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:54:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:54:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:55:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:56:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:57:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:58:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:58:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 00:59:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:00:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:01:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:02:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:02:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:03:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:04:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:04:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:05:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:05:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:06:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:07:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:07:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:08:13 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1347,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1364,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1381,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1398,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1415,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1432,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1449,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1466,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1483,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1500,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1517,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1534,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1551,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1568,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1585,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1602,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1619,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1636,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1772,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1789,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1806,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1823,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1840,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1857,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1874,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1891,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1908,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1925,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1942,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1959,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1976,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1993,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2010,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2027,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2044,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2061,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2078,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2095,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2112,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -2129,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -2146,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -2163,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -2180,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2197,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -2214,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{77065290-9F23-4E97-BABB-337B002FBEF6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69069D6-03C9-4577-B472-D2A817497CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="-26445" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="2505"/>
+    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>Execute</t>
   </si>
@@ -126,84 +126,6 @@
     <t>Wed Nov 01 15:50:57 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:51:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:52:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:52:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:52:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:52:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:52:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:53:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:53:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:53:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:53:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:53:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:54:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:54:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:54:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:54:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:54:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:55:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:55:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:55:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:55:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:55:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:56:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:56:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:56:36 EST 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -229,699 +151,6 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:56:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:56:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:56:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:57:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:57:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:57:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:57:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:57:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:58:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:59:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:59:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:59:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:59:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 22:59:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:00:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:00:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:00:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:00:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:00:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:01:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:01:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:01:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:01:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:01:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:02:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:02:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:02:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:02:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:02:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:03:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:03:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:03:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:03:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:03:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:04:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:04:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:04:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:04:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:04:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:05:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:05:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:23:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:24:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:24:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:24:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:24:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:24:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:25:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:25:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:25:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:25:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:25:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:26:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:26:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:26:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:26:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:26:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:27:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:27:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:27:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:27:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:27:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:28:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:28:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:28:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:28:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:28:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:29:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:29:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:29:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:29:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:29:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:30:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:30:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:30:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:30:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:30:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:31:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:31:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:31:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:31:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:31:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:32:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:32:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:32:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:37:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:37:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:37:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:37:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:37:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:38:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:38:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:38:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:38:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:38:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:39:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:39:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:39:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:39:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:39:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:40:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:40:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:40:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:40:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:41:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:41:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:41:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:41:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:41:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:42:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:42:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:42:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:42:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:42:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:43:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:43:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:43:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:43:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:43:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:44:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:44:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:44:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:44:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:45:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:45:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:45:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:45:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:45:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:46:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:46:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:46:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:15:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:16:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:16:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:16:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:16:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:16:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:17:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:17:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:17:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:17:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:18:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:18:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:18:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:18:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:18:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:19:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:19:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:19:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:19:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:20:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:20:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:20:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:20:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:20:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:21:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:21:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:21:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:21:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:21:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:22:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:22:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:22:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:22:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:23:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:23:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:23:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:23:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:23:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:24:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:24:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:24:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:24:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:25:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:25:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:25:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:25:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:44:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:45:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:45:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:45:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:45:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:46:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:46:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:46:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:46:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:46:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:47:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:47:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:47:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:47:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:47:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:48:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:48:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:48:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:48:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:48:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:49:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:49:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:49:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:49:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:49:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:50:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:50:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:50:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:50:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:50:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:51:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:51:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:51:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:51:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:51:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:52:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:52:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:52:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:52:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:53:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:53:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:53:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:53:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:53:50 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 00:39:27 EST 2024</t>
@@ -1066,7 +295,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1109,19 +337,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1138,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1176,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1228,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1339,21 +567,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1370,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1422,28 +650,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1485,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1502,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1519,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1536,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1553,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1570,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1587,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1604,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1621,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1638,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1655,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1672,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1689,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1706,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1723,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1740,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1757,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1774,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1794,7 +1022,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -1811,7 +1039,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1828,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -1845,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1862,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -1879,7 +1107,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
@@ -1896,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -1910,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1927,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1944,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1961,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1978,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1995,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -2012,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -2021,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2029,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -2038,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -2055,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -2072,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -2089,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -2106,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -2123,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2140,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2157,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2165,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2182,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2199,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2216,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2225,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2233,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2242,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2250,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -2259,15 +1487,15 @@
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -2276,15 +1504,15 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -2296,12 +1524,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -2310,15 +1538,15 @@
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2327,15 +1555,15 @@
         <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -2344,15 +1572,15 @@
         <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -2365,8 +1593,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69069D6-03C9-4577-B472-D2A817497CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5970D349-97AA-4609-B379-5AC1E2FAC198}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="915" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="345"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="93">
   <si>
     <t>Execute</t>
   </si>
@@ -289,12 +289,37 @@
   </si>
   <si>
     <t>Fri Mar 08 01:08:13 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:03:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:04:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:04:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:04:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:04:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:04:59 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,19 +362,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,10 +391,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -404,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,21 +592,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -650,28 +675,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,9 +723,6 @@
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,9 +737,6 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,9 +751,6 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -749,9 +765,6 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,9 +779,6 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,9 +793,6 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,9 +807,6 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,9 +821,6 @@
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,9 +835,6 @@
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,9 +849,6 @@
       <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,9 +863,6 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,9 +877,6 @@
       <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,9 +891,6 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,9 +905,6 @@
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,9 +919,6 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,9 +933,6 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,9 +947,6 @@
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,9 +961,6 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,9 +975,6 @@
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1036,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1053,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1070,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1087,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1104,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1121,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1140,9 +1108,6 @@
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,9 +1122,6 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,9 +1136,6 @@
       <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1191,9 +1150,6 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,9 +1164,6 @@
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,9 +1178,6 @@
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,9 +1192,6 @@
       <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1259,9 +1206,6 @@
       <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1276,9 +1220,6 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1293,9 +1234,6 @@
       <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1310,9 +1248,6 @@
       <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1327,9 +1262,6 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1344,9 +1276,6 @@
       <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1361,9 +1290,6 @@
       <c r="B41" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1378,9 +1304,6 @@
       <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1395,9 +1318,6 @@
       <c r="B43" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1412,9 +1332,6 @@
       <c r="B44" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1429,9 +1346,6 @@
       <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1446,9 +1360,6 @@
       <c r="B46" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1463,9 +1374,6 @@
       <c r="B47" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1480,9 +1388,6 @@
       <c r="B48" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,9 +1402,6 @@
       <c r="B49" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,9 +1416,6 @@
       <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1531,9 +1430,6 @@
       <c r="B51" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1548,9 +1444,6 @@
       <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,9 +1458,6 @@
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
@@ -1582,9 +1472,6 @@
       <c r="B54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
@@ -1593,8 +1480,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5970D349-97AA-4609-B379-5AC1E2FAC198}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C90CF-BE1E-40BF-8C57-5E5FAE91196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31710" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="345"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>Execute</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -105,27 +102,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:49:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:49:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:50:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:50:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:50:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:50:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:50:57 EDT 2023</t>
-  </si>
-  <si>
     <t>Admissions and Amusement Tax</t>
   </si>
   <si>
@@ -291,9 +267,6 @@
     <t>Fri Mar 08 01:08:13 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:03:47 EDT 2024</t>
   </si>
   <si>
@@ -313,13 +286,15 @@
   </si>
   <si>
     <t>Wed Mar 20 23:04:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,19 +337,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -429,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,21 +567,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -623,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -675,28 +650,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C24" sqref="C24:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -721,13 +696,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,13 +713,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,13 +730,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,13 +747,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,13 +764,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +781,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +798,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,13 +815,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,13 +832,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,13 +849,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,13 +866,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,13 +883,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +900,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,13 +917,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,13 +934,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,13 +951,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,13 +968,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,13 +985,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,13 +1002,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,16 +1019,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,16 +1036,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,16 +1053,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,16 +1070,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,16 +1104,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,16 +1121,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,13 +1138,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,13 +1155,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,13 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,13 +1189,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,13 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,13 +1223,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,13 +1240,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,13 +1257,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,13 +1274,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,13 +1291,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,13 +1308,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,13 +1325,16 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,13 +1342,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,13 +1359,16 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,13 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,13 +1393,16 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,13 +1410,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1344,13 +1427,16 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,13 +1444,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,13 +1461,16 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1386,13 +1478,16 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,13 +1495,16 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,13 +1512,16 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,13 +1529,16 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,13 +1546,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,13 +1563,16 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,18 +1580,21 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670C90CF-BE1E-40BF-8C57-5E5FAE91196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{670C90CF-BE1E-40BF-8C57-5E5FAE91196B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
   <si>
     <t>Execute</t>
   </si>
@@ -289,12 +289,175 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:54:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:55:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:55:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:55:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:55:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:55:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:56:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:56:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:56:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:56:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:56:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:57:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:57:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:57:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:57:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:57:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:58:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:58:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:58:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:58:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:58:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:59:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:59:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:59:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:59:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 17:59:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:00:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:00:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:00:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:00:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:00:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:01:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:01:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:01:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:01:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:01:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:02:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:02:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:02:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:02:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:02:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:03:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:03:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:03:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:03:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:03:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:04:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:04:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:04:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:04:39 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,19 +500,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,10 +529,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -404,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +619,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,21 +730,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +761,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -650,15 +813,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C54"/>
@@ -666,12 +829,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -713,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -730,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -747,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -764,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -781,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -798,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -815,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -832,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -849,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -866,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -883,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -900,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -917,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -934,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -951,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -968,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -985,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1002,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1019,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1036,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1053,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1070,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1087,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1104,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1121,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1138,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1155,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1172,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1189,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1206,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1223,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1240,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1308,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1342,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1359,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1376,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1393,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1410,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1427,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1444,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1461,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1478,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1495,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1512,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1529,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1546,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1563,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1580,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1593,8 +1756,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="192">
   <si>
     <t>Execute</t>
   </si>
@@ -451,6 +451,165 @@
   </si>
   <si>
     <t>Mon Apr 08 18:04:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:52:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:53:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:53:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:53:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:53:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:53:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:54:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:54:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:54:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:54:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:54:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:55:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:55:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:55:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:55:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:55:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:56:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:56:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:56:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:56:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:57:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:57:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:57:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:57:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:57:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:58:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:58:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:58:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:58:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:58:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:59:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:59:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:59:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 23:59:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:00:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:00:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:00:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:00:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:00:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:01:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:01:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:01:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:01:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:01:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:02:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:02:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:02:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:02:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:02:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:03:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:03:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:03:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:03:48 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -859,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -876,7 +1035,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -893,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -910,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -927,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -944,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -961,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -978,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -995,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1012,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1029,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1046,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1063,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1080,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1097,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1114,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1131,7 +1290,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1148,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1165,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1182,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1199,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1216,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1233,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1250,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1267,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1284,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1301,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1318,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1335,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1352,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1369,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1386,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1403,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1420,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1437,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1454,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1471,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1488,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1505,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1522,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1539,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1556,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1573,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1590,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1607,7 +1766,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1624,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1641,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1658,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1675,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1692,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1709,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1726,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1743,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="351">
   <si>
     <t>Execute</t>
   </si>
@@ -610,6 +610,483 @@
   </si>
   <si>
     <t>Sun Oct 13 00:03:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:45:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:45:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:45:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:46:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:46:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:46:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:46:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:46:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:47:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:47:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:47:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:47:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:47:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:48:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:48:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:48:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:48:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:49:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:49:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:49:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:49:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:49:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:50:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:50:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:50:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:50:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:51:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:51:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:51:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:51:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:51:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:52:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:52:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:52:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:52:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:53:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:53:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:53:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:53:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:53:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:54:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:54:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:54:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:54:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:54:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:55:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:55:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:55:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:55:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:56:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:56:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:56:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:56:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:42:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:42:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:42:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:42:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:43:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:43:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:43:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:43:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:43:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:44:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:44:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:44:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:44:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:44:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:45:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:45:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:45:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:45:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:45:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:46:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:46:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:46:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:46:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:47:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:47:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:47:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:47:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:47:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:48:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:48:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:48:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:48:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:48:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:49:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:49:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:49:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:49:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:49:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:50:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:50:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:50:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:50:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:50:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:51:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:51:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:51:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:51:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:51:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:52:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:52:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:52:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:52:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:53:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:52:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:53:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:53:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:53:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:53:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:53:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:54:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:54:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:54:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:54:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:54:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:55:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:55:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:55:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:55:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:55:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:56:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:56:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:56:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:56:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:56:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:57:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:57:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:57:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:57:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:58:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:58:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:58:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:58:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:58:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:59:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:59:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:59:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:59:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 11:59:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:00:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:00:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:00:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:00:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:00:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:01:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:01:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:01:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:01:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:01:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:02:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:02:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:02:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:02:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:02:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:03:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:03:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:03:35 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1035,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1052,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1069,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1086,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1103,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1120,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1137,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1154,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1171,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1188,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1205,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1222,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1239,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1273,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1290,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1307,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1324,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1341,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1358,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1375,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>319</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1392,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1409,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1426,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>322</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1443,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1460,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1477,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1494,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1511,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1528,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1545,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1562,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1579,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1596,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1613,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1630,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1647,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1664,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1681,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1698,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1715,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1732,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1749,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1766,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1783,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>343</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1800,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>344</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1817,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1834,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1851,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1868,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>348</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1885,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1902,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{670C90CF-BE1E-40BF-8C57-5E5FAE91196B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A4CBAA42-BE51-479C-9E8D-68B43DA55908}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="1155"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
   <si>
     <t>Execute</t>
   </si>
@@ -129,964 +129,325 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Fri Mar 08 00:39:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:40:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:40:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:41:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:41:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:42:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:43:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:43:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:44:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:44:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:45:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:46:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:46:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:47:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:48:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:48:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:49:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:50:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:50:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:51:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:51:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:52:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:52:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:53:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:54:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:54:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:55:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:56:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:57:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:58:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:58:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 00:59:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:00:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:00:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:01:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:02:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:02:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:03:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:04:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:04:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:05:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:05:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:06:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:07:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:07:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:08:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:03:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:04:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:04:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:04:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:04:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:04:59 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
+    <t>Thu Nov 07 16:30:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:30:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:31:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:31:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:31:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:31:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:32:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:32:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:32:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:32:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:33:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:33:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:33:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:33:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:33:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:34:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:34:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:34:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:34:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:35:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:35:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:35:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:35:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:36:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:36:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:36:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:36:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:37:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:37:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:37:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:37:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:37:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:38:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:38:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:38:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:38:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:39:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:39:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:39:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:39:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:39:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:40:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:40:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:40:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:40:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:41:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:41:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:41:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:41:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:42:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:42:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:42:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:42:49 EST 2024</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Apr 08 17:54:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:54:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:54:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:54:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:55:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:55:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:55:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:55:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:55:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:56:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:56:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:56:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:56:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:56:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:57:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:57:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:57:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:57:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:57:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:58:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:58:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:58:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:58:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:58:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:59:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:59:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:59:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:59:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 17:59:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:00:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:00:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:00:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:00:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:00:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:01:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:01:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:01:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:01:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:01:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:02:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:02:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:02:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:02:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:02:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:03:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:03:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:03:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:03:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:03:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:04:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:04:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:04:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:04:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:52:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:53:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:53:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:53:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:53:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:53:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:54:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:54:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:54:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:54:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:54:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:55:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:55:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:55:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:55:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:55:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:56:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:56:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:56:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:56:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:57:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:57:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:57:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:57:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:57:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:58:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:58:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:58:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:58:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:58:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:59:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:59:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:59:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 23:59:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:00:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:00:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:00:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:00:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:00:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:01:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:01:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:01:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:01:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:01:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:02:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:02:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:02:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:02:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:02:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:03:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:03:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:03:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:03:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:45:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:45:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:45:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:46:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:46:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:46:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:46:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:46:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:47:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:47:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:47:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:47:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:47:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:48:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:48:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:48:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:48:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:49:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:49:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:49:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:49:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:49:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:50:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:50:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:50:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:50:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:51:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:51:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:51:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:51:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:51:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:52:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:52:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:52:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:52:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:53:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:53:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:53:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:53:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:53:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:54:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:54:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:54:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:54:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:54:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:55:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:55:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:55:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:55:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:56:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:56:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:56:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:56:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:42:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:42:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:42:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:42:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:43:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:43:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:43:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:43:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:43:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:44:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:44:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:44:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:44:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:44:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:45:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:45:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:45:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:45:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:45:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:46:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:46:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:46:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:46:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:47:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:47:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:47:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:47:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:47:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:48:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:48:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:48:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:48:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:48:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:49:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:49:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:49:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:49:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:49:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:50:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:50:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:50:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:50:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:50:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:51:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:51:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:51:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:51:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:51:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:52:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:52:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:52:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:52:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:53:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:52:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:53:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:53:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:53:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:53:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:53:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:54:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:54:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:54:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:54:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:54:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:55:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:55:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:55:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:55:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:55:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:56:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:56:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:56:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:56:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:56:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:57:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:57:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:57:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:57:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:58:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:58:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:58:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:58:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:58:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:59:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:59:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:59:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:59:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 11:59:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:00:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:00:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:00:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:00:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:00:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:01:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:01:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:01:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:01:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:01:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:02:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:02:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:02:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:02:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:02:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:03:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:03:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:03:35 EDT 2024</t>
+    <t>Thu Nov 07 17:48:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:48:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:49:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:49:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:49:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:49:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:49:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:50:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:50:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:50:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:50:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:51:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:51:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:51:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:51:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:51:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:52:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:52:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:52:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:52:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:53:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:53:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:53:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:53:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:54:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:54:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:54:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:54:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:55:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:55:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:55:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:55:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:55:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:56:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:56:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:56:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:56:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:57:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:57:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:57:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:57:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:58:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:58:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:58:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:58:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:58:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:59:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:59:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:59:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 17:59:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:00:11 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1161,9 +522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -1201,7 +562,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -1307,7 +668,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1459,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1512,13 +873,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -1529,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1546,13 +907,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1563,13 +924,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1580,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -1597,13 +958,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -1614,13 +975,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
@@ -1631,13 +992,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -1648,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1665,13 +1026,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1682,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -1699,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1716,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1733,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1750,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1767,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1784,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1801,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1818,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1835,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1852,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1869,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1886,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1903,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1920,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1937,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1954,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1971,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1988,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>327</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -2005,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -2022,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -2039,13 +1400,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>22</v>
@@ -2056,13 +1417,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>23</v>
@@ -2073,13 +1434,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
@@ -2090,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
@@ -2107,13 +1468,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>26</v>
@@ -2124,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>27</v>
@@ -2141,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>336</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>28</v>
@@ -2158,13 +1519,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>29</v>
@@ -2175,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2192,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2209,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2226,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2243,10 +1604,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -2260,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2277,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -2294,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -2311,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -2328,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -2345,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>348</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2362,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -2379,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="189">
   <si>
     <t>Execute</t>
   </si>
@@ -448,6 +448,159 @@
   </si>
   <si>
     <t>Thu Nov 07 18:00:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:51:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:52:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:52:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:52:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:52:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:53:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:53:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:53:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:53:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:53:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:54:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:54:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:54:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:54:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:54:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:55:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:55:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:55:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:55:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:56:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:56:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:56:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:56:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:56:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:57:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:57:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:57:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:57:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:58:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:58:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:58:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:58:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:58:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:59:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:59:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:59:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:59:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:59:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:00:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:00:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:00:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:01:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:01:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:01:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:01:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:02:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:02:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:02:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:02:45 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -856,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -873,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -890,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -907,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -924,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -941,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -958,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -975,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -992,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1009,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1043,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1060,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1077,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1094,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1128,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1162,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1179,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1230,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1247,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1264,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1298,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1315,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1332,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1349,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1366,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1383,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1400,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1434,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1451,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1468,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1485,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1502,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1519,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1536,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1553,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1570,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1587,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1621,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1638,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1655,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1672,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1689,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1723,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1740,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="240">
   <si>
     <t>Execute</t>
   </si>
@@ -601,6 +601,159 @@
   </si>
   <si>
     <t>Tue Nov 12 18:02:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:57:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:58:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:58:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:58:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:58:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:58:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:59:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:59:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:59:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:59:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 21:59:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:00:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:00:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:00:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:00:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:00:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:01:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:01:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:01:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:01:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:02:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:02:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:02:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:02:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:02:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:03:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:03:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:03:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:03:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:03:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:04:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:04:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:04:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:04:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:04:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:05:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:05:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:05:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:05:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:05:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:06:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:06:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:06:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:06:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:07:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:07:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:07:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:07:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:07:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:08:09 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1043,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1060,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1077,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1094,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1111,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1128,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1145,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1162,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1179,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1230,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1247,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1264,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1298,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1315,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1332,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1349,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1366,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1383,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1400,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1417,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1434,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1451,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1468,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1485,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1502,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1519,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1536,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1553,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1587,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1604,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1621,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1638,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1655,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1672,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1689,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1723,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1740,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1774,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1791,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1808,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1825,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1842,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1859,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1876,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1893,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A4CBAA42-BE51-479C-9E8D-68B43DA55908}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895C438-51CD-47D0-A28D-708119E7DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
+    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>Execute</t>
   </si>
@@ -132,477 +132,6 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Thu Nov 07 16:30:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:30:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:31:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:31:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:31:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:31:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:32:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:32:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:32:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:32:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:33:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:33:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:33:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:33:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:33:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:34:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:34:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:34:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:34:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:35:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:35:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:35:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:35:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:36:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:36:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:36:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:36:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:37:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:37:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:37:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:37:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:37:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:38:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:38:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:38:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:38:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:39:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:39:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:39:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:39:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:39:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:40:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:40:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:40:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:40:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:41:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:41:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:41:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:41:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:42:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:42:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:42:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:42:49 EST 2024</t>
-  </si>
-  <si>
-    <t>DoNotRun</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:48:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:48:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:49:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:49:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:49:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:49:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:49:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:50:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:50:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:50:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:50:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:51:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:51:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:51:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:51:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:51:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:52:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:52:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:52:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:52:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:53:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:53:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:53:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:53:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:54:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:54:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:54:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:54:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:55:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:55:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:55:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:55:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:55:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:56:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:56:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:56:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:56:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:57:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:57:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:57:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:57:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:58:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:58:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:58:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:58:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:58:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:59:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:59:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:59:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 17:59:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:00:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:51:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:52:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:52:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:52:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:52:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:53:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:53:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:53:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:53:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:53:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:54:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:54:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:54:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:54:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:54:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:55:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:55:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:55:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:55:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:56:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:56:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:56:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:56:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:56:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:57:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:57:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:57:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:57:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:58:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:58:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:58:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:58:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:58:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:59:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:59:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:59:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:59:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:59:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:00:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:00:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:00:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:00:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:01:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:01:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:01:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:01:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:02:45 EST 2024</t>
-  </si>
-  <si>
     <t>Tue Jan 28 21:57:43 EST 2025</t>
   </si>
   <si>
@@ -754,13 +283,18 @@
   </si>
   <si>
     <t>Tue Jan 28 22:08:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:23:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:24:02 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,19 +337,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -832,10 +366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -870,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -922,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1033,21 +567,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1064,7 +598,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1116,28 +650,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1179,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1196,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1213,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1230,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1247,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1264,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1281,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1298,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1315,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1332,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1349,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1366,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1383,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1400,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1417,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1434,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1451,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1468,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1485,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1502,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1519,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1536,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1553,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1570,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1587,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1604,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1621,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1638,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1655,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1672,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1689,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1723,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>31</v>
@@ -1740,7 +1274,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1757,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1774,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1791,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1808,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1825,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1842,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1859,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1876,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1893,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1910,10 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1927,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1944,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1961,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1978,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1995,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -2012,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2029,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -2046,7 +1580,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -2059,8 +1593,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895C438-51CD-47D0-A28D-708119E7DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F246A736-045A-4113-88FB-73A6B4111280}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="32970" yWindow="1050" windowWidth="23235" windowHeight="14535" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="146">
   <si>
     <t>Execute</t>
   </si>
@@ -289,12 +289,196 @@
   </si>
   <si>
     <t>Thu Feb 06 13:24:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:07:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:08:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:08:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:08:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:08:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:09:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:09:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:09:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:09:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:09:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:10:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:10:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:10:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:10:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:10:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:11:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:11:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:11:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:11:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:11:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:12:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:12:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:12:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:12:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:12:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:13:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:13:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:13:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:13:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:14:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:14:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:14:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:14:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:14:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:15:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:15:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:15:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:15:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:15:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:16:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:16:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:16:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:16:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:16:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:17:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:17:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:17:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:17:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:17:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:18:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:18:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:18:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:18:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:18:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:19:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:19:21 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,19 +521,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,10 +550,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -404,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -456,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -567,21 +751,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -650,28 +834,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
-  <dimension ref="A1:E54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
+      <selection activeCell="C46" sqref="C46:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -713,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -730,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -747,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -764,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -781,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -798,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -815,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -832,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -849,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -866,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -883,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -900,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -917,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -934,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -951,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -968,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -985,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1002,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1019,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1036,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1053,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1070,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1087,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1104,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1121,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1138,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1155,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1172,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1189,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1206,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1223,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1240,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1274,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1291,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1308,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1325,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1342,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1359,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1376,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1393,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1410,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1427,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1444,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1461,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1478,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1495,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1512,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1529,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1546,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1563,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1580,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1592,9 +1776,94 @@
         <v>18</v>
       </c>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="204">
   <si>
     <t>Execute</t>
   </si>
@@ -472,6 +472,180 @@
   </si>
   <si>
     <t>Tue Feb 11 20:19:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:49:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:06 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -880,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -897,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -914,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -931,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -948,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -965,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -982,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -999,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1016,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1033,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1050,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1067,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1084,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1101,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1118,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1135,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1152,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1169,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1186,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1203,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1220,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1237,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1254,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1271,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1288,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1305,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1322,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1339,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1356,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1373,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1390,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1407,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1424,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1441,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1458,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1475,7 +1649,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1492,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1509,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1526,7 +1700,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1543,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1560,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1577,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1594,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1611,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1628,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1645,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1662,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1679,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1696,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1713,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1730,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1747,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1764,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1781,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -1798,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -1815,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1832,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -1849,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F246A736-045A-4113-88FB-73A6B4111280}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3BBEFFBE-0554-443D-894A-37775305B1B5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-120"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{8832F8CD-C84D-4F68-8EAE-C2E28DFA491F}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="148">
   <si>
     <t>Execute</t>
   </si>
@@ -132,520 +132,352 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Tue Jan 28 21:57:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:57:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:58:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:58:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:58:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:58:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:58:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:59:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:59:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:59:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:59:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 21:59:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:00:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:00:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:00:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:00:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:00:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:01:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:01:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:01:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:01:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:02:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:02:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:02:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:02:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:02:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:03:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:03:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:03:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:03:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:03:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:04:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:04:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:04:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:04:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:04:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:05:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:05:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:05:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:05:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:05:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:06:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:06:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:06:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:06:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:07:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:07:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:07:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:07:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:07:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:08:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:23:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:24:02 EST 2025</t>
-  </si>
-  <si>
     <t>Digital Advertising Gross Revenues</t>
   </si>
   <si>
     <t>PTE Composite</t>
   </si>
   <si>
+    <t>Mon Feb 24 22:49:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:50:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:51:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:52:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:53:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:54:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:55:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:56:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:57:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:58:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 22:59:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:00:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:01:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:02:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:03:06 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Tue Feb 11 20:07:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:07:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:08:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:08:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:08:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:08:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:08:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:09:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:09:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:09:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:09:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:09:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:10:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:10:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:10:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:10:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:10:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:11:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:11:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:11:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:11:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:11:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:12:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:12:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:12:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:12:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:12:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:13:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:13:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:13:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:13:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:14:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:14:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:14:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:14:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:14:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:15:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:15:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:15:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:15:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:15:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:16:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:16:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:16:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:16:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:16:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:17:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:17:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:17:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:17:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:17:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:18:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:18:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:18:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:18:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:18:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:19:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:19:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:49:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:50:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:50:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:50:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:50:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:50:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:51:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:51:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:51:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:51:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:51:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:52:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:52:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:52:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:52:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:53:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:53:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:53:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:53:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:54:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:54:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:54:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:54:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:55:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:55:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:55:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:55:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:55:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:56:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:56:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:56:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:56:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:57:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:57:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:57:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:57:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:57:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:58:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:58:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:58:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:59:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:59:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:59:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 22:59:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:00:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:00:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:00:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:00:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:01:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:01:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:01:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:01:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:02:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:02:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:02:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:02:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:02:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:03:06 EST 2025</t>
+    <t>Sat Oct 04 16:12:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:13:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:14:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:15:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:16:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:17:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:18:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:19:20 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -1018,21 +850,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2750B36-BDE9-40E0-AADF-384378C45A8A}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="47.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="43.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="34.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="43.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,12 +881,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1066,12 +898,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1083,12 +915,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1100,12 +932,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1117,12 +949,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -1134,12 +966,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -1151,12 +983,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1168,12 +1000,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1185,12 +1017,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1202,12 +1034,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1219,12 +1051,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1236,12 +1068,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1253,12 +1085,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1270,12 +1102,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1287,12 +1119,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1304,12 +1136,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1321,12 +1153,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1338,12 +1170,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1355,12 +1187,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1372,12 +1204,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1389,12 +1221,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1406,12 +1238,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1423,12 +1255,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1440,12 +1272,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1457,12 +1289,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1474,12 +1306,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1491,12 +1323,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1508,12 +1340,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1525,12 +1357,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1542,12 +1374,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1559,12 +1391,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1576,12 +1408,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1593,12 +1425,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1610,15 +1442,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>31</v>
@@ -1627,12 +1459,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1644,12 +1476,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1661,12 +1493,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1678,12 +1510,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1695,12 +1527,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1712,15 +1544,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>31</v>
@@ -1729,12 +1561,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1746,12 +1578,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1763,12 +1595,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1780,12 +1612,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1797,15 +1629,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1814,12 +1646,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1831,12 +1663,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1848,12 +1680,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1865,12 +1697,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1882,12 +1714,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1899,12 +1731,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1916,12 +1748,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1933,12 +1765,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1950,12 +1782,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -1964,15 +1796,15 @@
         <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -1981,15 +1813,15 @@
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1998,18 +1830,18 @@
         <v>31</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
@@ -2018,12 +1850,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
@@ -2032,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/EmailNoMatch.xlsx
+++ b/KatalonData/RADTestData/EmailNoMatch.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="202">
   <si>
     <t>Execute</t>
   </si>
@@ -478,6 +478,168 @@
   </si>
   <si>
     <t>Sat Oct 04 16:19:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:10:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:11:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:12:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:13:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:14:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:15:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:16:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:17:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:17:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:17:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 14:17:27 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -886,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -903,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -920,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -937,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -954,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -971,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -988,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -1005,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -1022,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1039,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -1056,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1073,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1090,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1107,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1124,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1141,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
@@ -1158,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -1175,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1192,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -1209,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1226,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1243,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1277,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1294,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1311,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1328,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1345,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1362,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1379,7 +1541,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1396,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1413,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1430,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1464,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1481,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1498,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1515,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1532,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1566,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -1583,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1600,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -1617,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1651,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1668,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -1685,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>4</v>
@@ -1702,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>4</v>
@@ -1719,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>4</v>
@@ -1736,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1753,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1770,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>4</v>
@@ -1787,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>4</v>
@@ -1804,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>4</v>
@@ -1821,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1855,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
